--- a/LubanConfig/MiniTemplate/Datas/#xiaohaoitem.xlsx
+++ b/LubanConfig/MiniTemplate/Datas/#xiaohaoitem.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -82,7 +82,10 @@
     <t>1,2;</t>
   </si>
   <si>
-    <t>2,10;</t>
+    <t>4,2;1,1;</t>
+  </si>
+  <si>
+    <t>6,3;</t>
   </si>
 </sst>
 </file>
@@ -1013,10 +1016,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1185,13 +1188,27 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
